--- a/MakeMyTrip/src/input/FlightBookingInput.xlsx
+++ b/MakeMyTrip/src/input/FlightBookingInput.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ParamType</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>RoundTrip</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,16 +512,16 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>42142</v>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>42143</v>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTrip/src/input/FlightBookingInput.xlsx
+++ b/MakeMyTrip/src/input/FlightBookingInput.xlsx
@@ -39,9 +39,6 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>NewDelhi</t>
-  </si>
-  <si>
     <t>departureDate</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>tomorrow</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -489,12 +489,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -502,26 +502,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
